--- a/ar.xlsx
+++ b/ar.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sasat\Desktop\arma_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5F9C6-D274-43FC-BD17-D4814337325D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270D1E3B-8E24-4B41-A32C-05F0A17E0BB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8D8D0458-869E-4228-951D-A37A711208FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,15 +51,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://jp.mathworks.com/help/ident/ref/ar.html#mw_67ffa537-3ba6-4f6a-a860-b1604215ae99</t>
-  </si>
-  <si>
     <t>forecast_excel</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>expect_MATLAB</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://jp.mathworks.com/help/ident/ref/forecast.html#bu5j7tk-2</t>
   </si>
 </sst>
 </file>
@@ -1072,1227 +1071,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>9.9833416646828196E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19866933079506099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29552020666133999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38941834230865102</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47942553860420301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56464247339503604</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.64421768723769102</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.71735609089952301</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.78332690962748297</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.84147098480789695</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.89120736006143497</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93203908596722596</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.96355818541719296</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.98544972998846003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.997494986604054</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.999573603041505</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99166481045246901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.97384763087819504</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.94630008768741503</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.90929742682568204</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.86320936664887404</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.80849640381958998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.74570521217672003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.67546318055115095</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.59847214410395599</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.51550137182146405</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.42737988023383</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.334988150155905</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.23924932921398201</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.14112000805986699</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.1580662433290498E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-5.83741434275801E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.15774569414324899</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.255541102026832</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.35078322768962</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.44252044329485202</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.52983614090849296</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.61185789094271903</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.68776615918397399</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.75680249530792798</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.81827711106441103</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.87157577241358797</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.91616593674945501</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.95160207388951601</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.97753011766509701</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.99369100363346496</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.99992325756410105</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.99616460883584101</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.98245261262433303</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.95892427466313901</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.92581468232773201</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.88345465572015303</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.83226744222390103</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.77276448755598703</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.70554032557039204</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.63126663787232096</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.55068554259763802</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.46460217941375698</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.37387666483023602</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.27941549819892603</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.18216250427209499</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-8.3089402817496397E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.6813900484350601E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.116549204850494</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.21511998808781599</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.31154136351337902</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.40484992061659802</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.49411335113860899</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.5784397643882</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.65698659871878895</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.72896904012587704</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.793667863849153</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.85043662062856495</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.89870809581162703</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.93799997677473901</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.96791967203148699</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.98816823387700004</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.99854334537460498</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.99894134183977201</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.98935824662338201</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.96988981084508596</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.94073055667977301</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.90217183375629295</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.85459890808828098</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.79848711262349004</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.734397097874113</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.662969230082182</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.58491719289176203</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.50102085645788497</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.41211848524175698</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.31909836234935202</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.222889914100246</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.124454423507062</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.4775425453357799E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-7.5151120461809301E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.17432678122298101</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-0.27176062641094401</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-0.36647912925192799</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-0.457535893775321</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-0.54402111088937</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5613-4A0F-8CFA-E3CE3A5969D7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="514131808"/>
-        <c:axId val="514125904"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="514131808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="514125904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="514125904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="514131808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>-0.625070648892882</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.69987468759354099</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.76768580976357903</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.82782646908564805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.87969575997166205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.92277542161279502</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.956635016270173</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.98093623006647201</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.99543625330635299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.99999020655067405</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.99455258820395398</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.97917772915127599</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.95401924990204201</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.91932852566462198</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.875452174688368</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.82282859496864202</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.76198358391896004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.693525084777044</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.618137112236949</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.53657291800034501</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.44964746453450699</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.35822928223672901</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.26323179136570002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.16560417544820599</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-6.6321897351095199E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.3623047221242798E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.13323204142004799</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.231509825101641</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.32747443913779201</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.42016703682673601</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.50866146437246296</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.59207351470730496</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.66956976219667497</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.74037588995251202</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.80378442655167404</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.85916181485653798</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.90595474230849105</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.94369566944411998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.97200750139497705</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.99060735569485603</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.99930938874788799</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.99802665271631696</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.98677196427455205</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.96565777654920004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.93489505552458996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.89479117214039505</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.84574683114281002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.78825206737517794</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.72288134951182403</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.65028784015695296</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.57119686965981298</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.48639868885361398</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.39674057313041899</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.30311835674550303</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.20646748193759201</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.107753652299237</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7.9631837857290499E-3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-9.1906850227886902E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.19085858137439099</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.28790331666526198</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.38207141718419602</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.47242198639864402</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.55805227128694401</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.63810668234809897</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.71178534236925695</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.77835207853441302</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.83714177801984302</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.88756703358157796</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.92912401273442002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.96139749187958401</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-0.98406500508164496</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.996900066041572</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-0.99977443107296105</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.99265938047055702</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.975626005468055</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.94884449791799597</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-0.91258244979102998</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.86720217948540401</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.81315711166128701</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.75098724677145401</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.68131376555525902</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.60483282240602398</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-0.52230858962645699</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.43456562207160698</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-0.34248061846931299</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-0.24697366173631499</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-0.14899902581388599</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-4.9535640878054503E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.0422687807124902E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.14987720966326001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.247834207983258</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.34331492882018499</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.43536536037316698</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.523065765157955</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.60553986971983798</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.68196362006834799</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.75157341535233602</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.81367373750726402</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.86764410064179698</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.91294525072772403</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC33-44BF-A733-C9AE5A91735B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="516849784"/>
-        <c:axId val="516849128"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="516849784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="516849128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="516849128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="516849784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2848,1038 +1627,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3913,83 +1660,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>212725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>212725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54BD00A-0AB0-4AC2-9403-EC2FC401B14B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E76BFE-5764-4089-9AD3-5B63683A6452}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4298,7 +1968,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4312,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -4384,7 +2054,7 @@
         <v>2.9607813941345817E-5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5942,827 +3612,10 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" location="mw_67ffa537-3ba6-4f6a-a860-b1604215ae99" display="https://jp.mathworks.com/help/ident/ref/ar.html - mw_67ffa537-3ba6-4f6a-a860-b1604215ae99" xr:uid="{69641D75-2450-4338-8B61-DD45C06C824E}"/>
+    <hyperlink ref="H4" r:id="rId1" location="bu5j7tk-2" display="https://jp.mathworks.com/help/ident/ref/forecast.html - bu5j7tk-2" xr:uid="{01A13199-6A05-434D-8100-F079BE520EE3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7BFB232-FB3E-47DC-B5DD-E00F3C247740}">
-  <dimension ref="A1:B100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1">
-        <v>9.9833416646828196E-2</v>
-      </c>
-      <c r="B1">
-        <v>-0.625070648892882</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>0.19866933079506099</v>
-      </c>
-      <c r="B2">
-        <v>-0.69987468759354099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>0.29552020666133999</v>
-      </c>
-      <c r="B3">
-        <v>-0.76768580976357903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>0.38941834230865102</v>
-      </c>
-      <c r="B4">
-        <v>-0.82782646908564805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>0.47942553860420301</v>
-      </c>
-      <c r="B5">
-        <v>-0.87969575997166205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>0.56464247339503604</v>
-      </c>
-      <c r="B6">
-        <v>-0.92277542161279502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>0.64421768723769102</v>
-      </c>
-      <c r="B7">
-        <v>-0.956635016270173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>0.71735609089952301</v>
-      </c>
-      <c r="B8">
-        <v>-0.98093623006647201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>0.78332690962748297</v>
-      </c>
-      <c r="B9">
-        <v>-0.99543625330635299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>0.84147098480789695</v>
-      </c>
-      <c r="B10">
-        <v>-0.99999020655067405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>0.89120736006143497</v>
-      </c>
-      <c r="B11">
-        <v>-0.99455258820395398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>0.93203908596722596</v>
-      </c>
-      <c r="B12">
-        <v>-0.97917772915127599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>0.96355818541719296</v>
-      </c>
-      <c r="B13">
-        <v>-0.95401924990204201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>0.98544972998846003</v>
-      </c>
-      <c r="B14">
-        <v>-0.91932852566462198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
-        <v>0.997494986604054</v>
-      </c>
-      <c r="B15">
-        <v>-0.875452174688368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
-        <v>0.999573603041505</v>
-      </c>
-      <c r="B16">
-        <v>-0.82282859496864202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
-        <v>0.99166481045246901</v>
-      </c>
-      <c r="B17">
-        <v>-0.76198358391896004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
-        <v>0.97384763087819504</v>
-      </c>
-      <c r="B18">
-        <v>-0.693525084777044</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>0.94630008768741503</v>
-      </c>
-      <c r="B19">
-        <v>-0.618137112236949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>0.90929742682568204</v>
-      </c>
-      <c r="B20">
-        <v>-0.53657291800034501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>0.86320936664887404</v>
-      </c>
-      <c r="B21">
-        <v>-0.44964746453450699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>0.80849640381958998</v>
-      </c>
-      <c r="B22">
-        <v>-0.35822928223672901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>0.74570521217672003</v>
-      </c>
-      <c r="B23">
-        <v>-0.26323179136570002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>0.67546318055115095</v>
-      </c>
-      <c r="B24">
-        <v>-0.16560417544820599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>0.59847214410395599</v>
-      </c>
-      <c r="B25">
-        <v>-6.6321897351095199E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>0.51550137182146405</v>
-      </c>
-      <c r="B26">
-        <v>3.3623047221242798E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
-        <v>0.42737988023383</v>
-      </c>
-      <c r="B27">
-        <v>0.13323204142004799</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>0.334988150155905</v>
-      </c>
-      <c r="B28">
-        <v>0.231509825101641</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>0.23924932921398201</v>
-      </c>
-      <c r="B29">
-        <v>0.32747443913779201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>0.14112000805986699</v>
-      </c>
-      <c r="B30">
-        <v>0.42016703682673601</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>4.1580662433290498E-2</v>
-      </c>
-      <c r="B31">
-        <v>0.50866146437246296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>-5.83741434275801E-2</v>
-      </c>
-      <c r="B32">
-        <v>0.59207351470730496</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
-        <v>-0.15774569414324899</v>
-      </c>
-      <c r="B33">
-        <v>0.66956976219667497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
-        <v>-0.255541102026832</v>
-      </c>
-      <c r="B34">
-        <v>0.74037588995251202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
-        <v>-0.35078322768962</v>
-      </c>
-      <c r="B35">
-        <v>0.80378442655167404</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
-        <v>-0.44252044329485202</v>
-      </c>
-      <c r="B36">
-        <v>0.85916181485653798</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>-0.52983614090849296</v>
-      </c>
-      <c r="B37">
-        <v>0.90595474230849105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>-0.61185789094271903</v>
-      </c>
-      <c r="B38">
-        <v>0.94369566944411998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>-0.68776615918397399</v>
-      </c>
-      <c r="B39">
-        <v>0.97200750139497705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>-0.75680249530792798</v>
-      </c>
-      <c r="B40">
-        <v>0.99060735569485603</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>-0.81827711106441103</v>
-      </c>
-      <c r="B41">
-        <v>0.99930938874788799</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
-        <v>-0.87157577241358797</v>
-      </c>
-      <c r="B42">
-        <v>0.99802665271631696</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
-        <v>-0.91616593674945501</v>
-      </c>
-      <c r="B43">
-        <v>0.98677196427455205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>-0.95160207388951601</v>
-      </c>
-      <c r="B44">
-        <v>0.96565777654920004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>-0.97753011766509701</v>
-      </c>
-      <c r="B45">
-        <v>0.93489505552458996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <v>-0.99369100363346496</v>
-      </c>
-      <c r="B46">
-        <v>0.89479117214039505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <v>-0.99992325756410105</v>
-      </c>
-      <c r="B47">
-        <v>0.84574683114281002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>-0.99616460883584101</v>
-      </c>
-      <c r="B48">
-        <v>0.78825206737517794</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <v>-0.98245261262433303</v>
-      </c>
-      <c r="B49">
-        <v>0.72288134951182403</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>-0.95892427466313901</v>
-      </c>
-      <c r="B50">
-        <v>0.65028784015695296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
-        <v>-0.92581468232773201</v>
-      </c>
-      <c r="B51">
-        <v>0.57119686965981298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>-0.88345465572015303</v>
-      </c>
-      <c r="B52">
-        <v>0.48639868885361398</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <v>-0.83226744222390103</v>
-      </c>
-      <c r="B53">
-        <v>0.39674057313041899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <v>-0.77276448755598703</v>
-      </c>
-      <c r="B54">
-        <v>0.30311835674550303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <v>-0.70554032557039204</v>
-      </c>
-      <c r="B55">
-        <v>0.20646748193759201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <v>-0.63126663787232096</v>
-      </c>
-      <c r="B56">
-        <v>0.107753652299237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <v>-0.55068554259763802</v>
-      </c>
-      <c r="B57">
-        <v>7.9631837857290499E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <v>-0.46460217941375698</v>
-      </c>
-      <c r="B58">
-        <v>-9.1906850227886902E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <v>-0.37387666483023602</v>
-      </c>
-      <c r="B59">
-        <v>-0.19085858137439099</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <v>-0.27941549819892603</v>
-      </c>
-      <c r="B60">
-        <v>-0.28790331666526198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
-        <v>-0.18216250427209499</v>
-      </c>
-      <c r="B61">
-        <v>-0.38207141718419602</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>-8.3089402817496397E-2</v>
-      </c>
-      <c r="B62">
-        <v>-0.47242198639864402</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <v>1.6813900484350601E-2</v>
-      </c>
-      <c r="B63">
-        <v>-0.55805227128694401</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
-        <v>0.116549204850494</v>
-      </c>
-      <c r="B64">
-        <v>-0.63810668234809897</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
-        <v>0.21511998808781599</v>
-      </c>
-      <c r="B65">
-        <v>-0.71178534236925695</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <v>0.31154136351337902</v>
-      </c>
-      <c r="B66">
-        <v>-0.77835207853441302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
-        <v>0.40484992061659802</v>
-      </c>
-      <c r="B67">
-        <v>-0.83714177801984302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
-        <v>0.49411335113860899</v>
-      </c>
-      <c r="B68">
-        <v>-0.88756703358157796</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
-        <v>0.5784397643882</v>
-      </c>
-      <c r="B69">
-        <v>-0.92912401273442002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
-        <v>0.65698659871878895</v>
-      </c>
-      <c r="B70">
-        <v>-0.96139749187958401</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
-        <v>0.72896904012587704</v>
-      </c>
-      <c r="B71">
-        <v>-0.98406500508164496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
-        <v>0.793667863849153</v>
-      </c>
-      <c r="B72">
-        <v>-0.996900066041572</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
-        <v>0.85043662062856495</v>
-      </c>
-      <c r="B73">
-        <v>-0.99977443107296105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
-        <v>0.89870809581162703</v>
-      </c>
-      <c r="B74">
-        <v>-0.99265938047055702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
-        <v>0.93799997677473901</v>
-      </c>
-      <c r="B75">
-        <v>-0.975626005468055</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
-        <v>0.96791967203148699</v>
-      </c>
-      <c r="B76">
-        <v>-0.94884449791799597</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
-        <v>0.98816823387700004</v>
-      </c>
-      <c r="B77">
-        <v>-0.91258244979102998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
-        <v>0.99854334537460498</v>
-      </c>
-      <c r="B78">
-        <v>-0.86720217948540401</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79">
-        <v>0.99894134183977201</v>
-      </c>
-      <c r="B79">
-        <v>-0.81315711166128701</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80">
-        <v>0.98935824662338201</v>
-      </c>
-      <c r="B80">
-        <v>-0.75098724677145401</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81">
-        <v>0.96988981084508596</v>
-      </c>
-      <c r="B81">
-        <v>-0.68131376555525902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82">
-        <v>0.94073055667977301</v>
-      </c>
-      <c r="B82">
-        <v>-0.60483282240602398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
-        <v>0.90217183375629295</v>
-      </c>
-      <c r="B83">
-        <v>-0.52230858962645699</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84">
-        <v>0.85459890808828098</v>
-      </c>
-      <c r="B84">
-        <v>-0.43456562207160698</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85">
-        <v>0.79848711262349004</v>
-      </c>
-      <c r="B85">
-        <v>-0.34248061846931299</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86">
-        <v>0.734397097874113</v>
-      </c>
-      <c r="B86">
-        <v>-0.24697366173631499</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87">
-        <v>0.662969230082182</v>
-      </c>
-      <c r="B87">
-        <v>-0.14899902581388599</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88">
-        <v>0.58491719289176203</v>
-      </c>
-      <c r="B88">
-        <v>-4.9535640878054503E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89">
-        <v>0.50102085645788497</v>
-      </c>
-      <c r="B89">
-        <v>5.0422687807124902E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90">
-        <v>0.41211848524175698</v>
-      </c>
-      <c r="B90">
-        <v>0.14987720966326001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91">
-        <v>0.31909836234935202</v>
-      </c>
-      <c r="B91">
-        <v>0.247834207983258</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92">
-        <v>0.222889914100246</v>
-      </c>
-      <c r="B92">
-        <v>0.34331492882018499</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93">
-        <v>0.124454423507062</v>
-      </c>
-      <c r="B93">
-        <v>0.43536536037316698</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94">
-        <v>2.4775425453357799E-2</v>
-      </c>
-      <c r="B94">
-        <v>0.523065765157955</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95">
-        <v>-7.5151120461809301E-2</v>
-      </c>
-      <c r="B95">
-        <v>0.60553986971983798</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96">
-        <v>-0.17432678122298101</v>
-      </c>
-      <c r="B96">
-        <v>0.68196362006834799</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97">
-        <v>-0.27176062641094401</v>
-      </c>
-      <c r="B97">
-        <v>0.75157341535233602</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98">
-        <v>-0.36647912925192799</v>
-      </c>
-      <c r="B98">
-        <v>0.81367373750726402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99">
-        <v>-0.457535893775321</v>
-      </c>
-      <c r="B99">
-        <v>0.86764410064179698</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100">
-        <v>-0.54402111088937</v>
-      </c>
-      <c r="B100">
-        <v>0.91294525072772403</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>